--- a/data/trans_dic/P44A$endoscopia-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44A$endoscopia-Edad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3724989303710732</v>
+        <v>0.3827414856345034</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3499650106609287</v>
+        <v>0.3437832187838993</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2010259541137503</v>
+        <v>0.1974280289322131</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3811232839142367</v>
+        <v>0.3639349137198453</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1071165603214297</v>
+        <v>0.1108385206353818</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1823790704044798</v>
+        <v>0.1866071612489481</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4514825579361416</v>
+        <v>0.4557652499878183</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3531445112668896</v>
+        <v>0.357624188265615</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2086803301194178</v>
+        <v>0.2095382293398852</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9053626066391715</v>
+        <v>0.9239298213080255</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7286624064356618</v>
+        <v>0.7538314811906399</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3933790542427031</v>
+        <v>0.3969732277586268</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8304267185746876</v>
+        <v>0.832502099106172</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7551835582522876</v>
+        <v>0.750427747562753</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3392101651136052</v>
+        <v>0.3487440191959135</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.80837555192148</v>
+        <v>0.797585765967174</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6781477063494299</v>
+        <v>0.6972441058620368</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3352316855946857</v>
+        <v>0.3282829457173623</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4458507345746879</v>
+        <v>0.4423592291734443</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3842587718899324</v>
+        <v>0.385760397404178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3538528488440936</v>
+        <v>0.3541090751081593</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4381027974456616</v>
+        <v>0.4525186884592113</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4063179236772357</v>
+        <v>0.4122562041639358</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2354892047916641</v>
+        <v>0.2329020959980447</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5074165617223471</v>
+        <v>0.485858982493804</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4287017598942623</v>
+        <v>0.439225584827107</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3117539808959388</v>
+        <v>0.3107491548227252</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7777028339720224</v>
+        <v>0.7864567226082453</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6777597204023569</v>
+        <v>0.6715665535772356</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4808576321965187</v>
+        <v>0.4839914641599523</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.788444668063852</v>
+        <v>0.8180718204984118</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7450364099582079</v>
+        <v>0.7467993845591827</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.344145362331027</v>
+        <v>0.3367353542846145</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7485669018897803</v>
+        <v>0.7413462298835569</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6519618863181568</v>
+        <v>0.6552035187608303</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4009952180060637</v>
+        <v>0.3992814930066761</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.407115924652855</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4635587753350246</v>
+        <v>0.4635587753350245</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.6268488594591701</v>
@@ -873,7 +873,7 @@
         <v>0.5867035534725397</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.3603849589366537</v>
+        <v>0.3603849589366538</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.6803439026731414</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5438725264294328</v>
+        <v>0.5411636717316529</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2617360906098688</v>
+        <v>0.2748696735962153</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3991146742694571</v>
+        <v>0.3953751479601589</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4144229456150103</v>
+        <v>0.4558241904895431</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4109213921200069</v>
+        <v>0.409509964688667</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3003611585260049</v>
+        <v>0.3076785226126538</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5425605369276318</v>
+        <v>0.5455935113292227</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3662199771491469</v>
+        <v>0.3684958192431795</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3711708165811578</v>
+        <v>0.3738255641914276</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8804980361512228</v>
+        <v>0.8860805966833701</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5679154479848048</v>
+        <v>0.5922744133173933</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5245332576084734</v>
+        <v>0.5220440833519983</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7772067687062543</v>
+        <v>0.8041500474016786</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7542663916673882</v>
+        <v>0.7639159519165251</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4145501549753809</v>
+        <v>0.4176850795553737</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7854194977729277</v>
+        <v>0.7938200111587964</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5960592507479981</v>
+        <v>0.6031714985640378</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4592295593414862</v>
+        <v>0.4589439411626796</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.577336834482659</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.5524354868010679</v>
+        <v>0.5524354868010678</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2048719702957844</v>
+        <v>0.2401603499729555</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4588400045973184</v>
+        <v>0.4403885181263925</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4783214813743511</v>
+        <v>0.4776574543765123</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3568416735812132</v>
+        <v>0.3333127777685376</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3752429467745942</v>
+        <v>0.3322743048744375</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4806780688208921</v>
+        <v>0.4826353834945291</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3412199567317724</v>
+        <v>0.3239914527561029</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.452045714472484</v>
+        <v>0.4442201920518934</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5007325197446599</v>
+        <v>0.5005946279629536</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6167861543507758</v>
+        <v>0.622281186074774</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.754698364889636</v>
+        <v>0.7495634088987813</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6357327079647038</v>
+        <v>0.6260701324106405</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7824548313613175</v>
+        <v>0.7811930368875722</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7447827753480855</v>
+        <v>0.7261722497170877</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6288949241228691</v>
+        <v>0.617250403374778</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6192937593058986</v>
+        <v>0.6231084858612279</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6905036365097977</v>
+        <v>0.6939071390391812</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6022725371677751</v>
+        <v>0.6058111386261966</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5051888680355084</v>
+        <v>0.501643472450912</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.434252118432943</v>
+        <v>0.4436016590888513</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3945444742094213</v>
+        <v>0.3961772401011128</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5072840622761006</v>
+        <v>0.5280863229691877</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4577022590716825</v>
+        <v>0.4552417301709759</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3303772610531127</v>
+        <v>0.3305191409810497</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.550433936125643</v>
+        <v>0.5437987943811161</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4741864724804266</v>
+        <v>0.4785434536724951</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3748171074129124</v>
+        <v>0.3764173434622524</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7122665810086291</v>
+        <v>0.70109128309333</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.592952418997872</v>
+        <v>0.5982211959955898</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4698015393320824</v>
+        <v>0.4738341152853153</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7170285641097613</v>
+        <v>0.722748308415596</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6587974738730985</v>
+        <v>0.6550825714658608</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3980833799104601</v>
+        <v>0.3933575329040588</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6833501931408523</v>
+        <v>0.6829659587101463</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6025356556263511</v>
+        <v>0.5968423588087639</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4242581768479508</v>
+        <v>0.4256363689547534</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5279</v>
+        <v>5424</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9373</v>
+        <v>9207</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19096</v>
+        <v>18755</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7816</v>
+        <v>7464</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1182</v>
+        <v>1223</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13997</v>
+        <v>14322</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>15658</v>
+        <v>15806</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13356</v>
+        <v>13525</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>35839</v>
+        <v>35987</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12831</v>
+        <v>13094</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19515</v>
+        <v>20189</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>37369</v>
+        <v>37710</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17031</v>
+        <v>17074</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8335</v>
+        <v>8282</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>26034</v>
+        <v>26765</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>28035</v>
+        <v>27661</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>25647</v>
+        <v>26369</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>57573</v>
+        <v>56380</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>17540</v>
+        <v>17403</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20133</v>
+        <v>20212</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>68495</v>
+        <v>68545</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14792</v>
+        <v>15279</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>15375</v>
+        <v>15600</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>41110</v>
+        <v>40658</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>37095</v>
+        <v>35519</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>38684</v>
+        <v>39634</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>114769</v>
+        <v>114400</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30596</v>
+        <v>30940</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>35511</v>
+        <v>35187</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>93080</v>
+        <v>93686</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>26621</v>
+        <v>27621</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>28192</v>
+        <v>28259</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>60078</v>
+        <v>58784</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>54724</v>
+        <v>54196</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>58830</v>
+        <v>59122</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>147623</v>
+        <v>146992</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16650</v>
+        <v>16567</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11493</v>
+        <v>12070</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>70884</v>
+        <v>70219</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13006</v>
+        <v>14305</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>12818</v>
+        <v>12774</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>47323</v>
+        <v>48476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>33637</v>
+        <v>33825</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>27505</v>
+        <v>27676</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>124401</v>
+        <v>125291</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26956</v>
+        <v>27126</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>24938</v>
+        <v>26007</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>93158</v>
+        <v>92716</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24391</v>
+        <v>25237</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23528</v>
+        <v>23829</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>65314</v>
+        <v>65808</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>48694</v>
+        <v>49214</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>44766</v>
+        <v>45301</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>153914</v>
+        <v>153819</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5171</v>
+        <v>6062</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>16793</v>
+        <v>16117</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>50083</v>
+        <v>50013</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7599</v>
+        <v>7098</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13530</v>
+        <v>11980</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>57389</v>
+        <v>57623</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>15879</v>
+        <v>15077</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>32843</v>
+        <v>32274</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>112213</v>
+        <v>112182</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15568</v>
+        <v>15706</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>27620</v>
+        <v>27433</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>66564</v>
+        <v>65553</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>16662</v>
+        <v>16636</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>26854</v>
+        <v>26183</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>75085</v>
+        <v>73695</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>28819</v>
+        <v>28996</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>50168</v>
+        <v>50415</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>134967</v>
+        <v>135760</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>55250</v>
+        <v>54863</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>69344</v>
+        <v>70837</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>225234</v>
+        <v>226166</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>54255</v>
+        <v>56479</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>53151</v>
+        <v>52865</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>174527</v>
+        <v>174602</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>119069</v>
+        <v>117633</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>130786</v>
+        <v>131988</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>411975</v>
+        <v>413734</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>77898</v>
+        <v>76676</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>94686</v>
+        <v>95528</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>268196</v>
+        <v>270498</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>76687</v>
+        <v>77299</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>76504</v>
+        <v>76072</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>210294</v>
+        <v>207797</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>147821</v>
+        <v>147738</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>166187</v>
+        <v>164616</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>466318</v>
+        <v>467833</v>
       </c>
     </row>
     <row r="24">
